--- a/Arbeitsdokumente/T_Tools.xlsx
+++ b/Arbeitsdokumente/T_Tools.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan Samardzic\Documents\GitHub\PS_InfoEng\Literatur\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ivan Samardzic\Documents\GitHub\PS_InfoEng\Arbeitsdokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B644FC85-A0A5-414E-8203-E56D2B4897B0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E276289C-37EC-4898-B491-32C4BA345081}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="11010" xr2:uid="{E514CA22-688F-4A54-BA34-1AB64F501A9A}"/>
   </bookViews>
@@ -490,6 +490,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -497,9 +500,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -817,8 +817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C4E3E0D-6D55-467E-A865-F43D89624C67}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,17 +831,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="B1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="29"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="33"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
@@ -853,13 +852,13 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -922,13 +921,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
